--- a/output/inference_results/test_sheets/batch_005/test_sheet (54).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (54).xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.5-9.5 10^9/L</t>
+          <t>3.5-9.5</t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31.5←</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40-75%</t>
+          <t>40-75</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3LYMPH%</t>
+          <t>LYMPH%</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -500,24 +500,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>59.0↑</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20-50%</t>
+          <t>20-50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MONO%单核细胞比率</t>
+          <t>MONO%</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MONO%单核细胞比率</t>
+          <t>单核细胞比率</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,16 +527,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10%</t>
+          <t>3-10</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>嗜酸性粒细胞比率</t>
@@ -549,59 +545,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.4-8%</t>
+          <t>0.4-8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6BAS0%</t>
+          <t>BAS0%</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞比率0</t>
+          <t>嗜碱性粒细胞比率</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1%</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7NEUT#中性细胞数</t>
+          <t>NEUT#</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7NEUT#中性细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.63←</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.8-6.3 10^9/L</t>
+          <t>1.8-6.3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8LYMPH淋巴细胞数</t>
+          <t>LYMPH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8LYMPH淋巴细胞数</t>
+          <t>淋巴细胞数</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -611,19 +607,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.1-3.210^9/L</t>
+          <t>1.1-3.2</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9MONO#单核细胞</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9MONO#单核细胞</t>
+          <t>MONO#单核细胞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -633,19 +625,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.1-0.610^9/L</t>
+          <t>0.1-0.6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10 E0#</t>
+          <t>E0#</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -655,14 +647,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02-0.52 10^9/L</t>
+          <t>0.02-0.52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11 BASO#</t>
+          <t>BASO#</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -673,14 +665,14 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-0.06 10 9/L</t>
+          <t>0-0.06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12RBC</t>
+          <t>RBC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -690,19 +682,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.91←</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.8--5.110~12/L</t>
+          <t>3.8-5.1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13 HGB</t>
+          <t>HGB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -712,12 +704,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>113.00←115--150g/L</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>113.00←115--150g/L</t>
+          <t>115-150</t>
         </is>
       </c>
     </row>
@@ -733,7 +725,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14HCT</t>
+          <t>HCT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,14 +740,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.35--0.45</t>
+          <t>0.35-0.45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15MCV</t>
+          <t>MCV</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -765,19 +757,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>126.50→</t>
+          <t>126.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82-100fl</t>
+          <t>82-100</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16MCH</t>
+          <t>MCH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -787,85 +779,85 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>38.80→</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-34pg</t>
+          <t>27-34</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17 MCHC</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>平均血红蛋白浓度307.00←</t>
+          <t>平均血红蛋白浓度</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平均血红蛋白浓度307.00←</t>
+          <t>307.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>316-354g/L</t>
+          <t>316-354</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18RDW-SI红细胞分布宽度</t>
+          <t>RDW-SI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18RDW-SI红细胞分布宽度</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>71.40→</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>37-50 fI</t>
+          <t>37-50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19RDW-CARDW-CV</t>
+          <t>RDW-CA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19RDW-CARDW-CV</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16.10→</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-15%</t>
+          <t>0-15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20PLT</t>
+          <t>PLT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -875,19 +867,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>57.00←</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>125-350 10^9/L</t>
+          <t>125-350</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21PDW</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -897,19 +889,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-17 fL</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22 MPV</t>
+          <t>MPV</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -919,19 +911,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9-13 fL</t>
+          <t>9-13</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23 PCT</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -941,34 +933,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.07←</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.18-0.282%</t>
+          <t>0.18-0.282</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24P-LCR大型血小板比率</t>
+          <t>P-LCR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24P-LCR大型血小板比率</t>
+          <t>大型血小板比率</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>36.40</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-43%</t>
+          <t>13-43</t>
         </is>
       </c>
     </row>
